--- a/data/demands.xlsx
+++ b/data/demands.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\global_shipping_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mscle\Desktop\global_shipping_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2531,15 +2531,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>579437</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>277812</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2828,7 +2828,7 @@
   <dimension ref="C3:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <f>+C7+1</f>
+        <f t="shared" ref="C8:C46" si="0">+C7+1</f>
         <v>2012</v>
       </c>
       <c r="D8" s="2">
@@ -2919,163 +2919,163 @@
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <f>+C8+1</f>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D14" si="0">+D8*1.03</f>
+        <f t="shared" ref="D9:D14" si="1">+D8*1.03</f>
         <v>14852.6</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:E14" si="1">+E8*1.043</f>
+        <f t="shared" ref="E9:E14" si="2">+E8*1.043</f>
         <v>13598.112499999997</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F15" si="2">+F8*1.043</f>
+        <f t="shared" ref="F9:F15" si="3">+F8*1.043</f>
         <v>12510.263499999999</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:G14" si="3">+G8*1.024</f>
+        <f t="shared" ref="G9:G14" si="4">+G8*1.024</f>
         <v>8912.8960000000006</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" ref="H9:H14" si="4">+H8*1.024</f>
+        <f t="shared" ref="H9:H14" si="5">+H8*1.024</f>
         <v>5767.1679999999997</v>
       </c>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <f>+C9+1</f>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15298.178</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14182.831337499996</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13048.204830499999</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9126.8055040000017</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5905.5800319999998</v>
       </c>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <f>+C10+1</f>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15757.12334</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14792.693085012495</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13609.277638211497</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9345.8488360960018</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6047.3139527679996</v>
       </c>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <f>+C11+1</f>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16229.8370402</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15428.778887668032</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14194.47657665459</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9570.1492081623055</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6192.4494876344315</v>
       </c>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <f>+C12+1</f>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16716.732151406002</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16092.216379837755</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14804.839069450736</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9799.8327891582012</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6341.0682753376577</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <f>+C13+1</f>
+        <f t="shared" si="0"/>
         <v>2018</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17218.234115948184</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16784.181684170777</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15441.447149437117</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10035.028776097999</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6493.2539139457613</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <f>+C14+1</f>
+        <f t="shared" si="0"/>
         <v>2019</v>
       </c>
       <c r="D15" s="2">
@@ -3087,7 +3087,7 @@
         <v>17069.512772801678</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16105.429376862912</v>
       </c>
       <c r="G15" s="2">
@@ -3101,15 +3101,15 @@
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <f>+C15+1</f>
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:D26" si="5">+D15*1.025</f>
+        <f t="shared" ref="D16:D26" si="6">+D15*1.025</f>
         <v>18089.90721806806</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ref="E16:E26" si="6">+E15*1.017</f>
+        <f t="shared" ref="E16:E26" si="7">+E15*1.017</f>
         <v>17359.694489939306</v>
       </c>
       <c r="F16" s="2">
@@ -3117,263 +3117,263 @@
         <v>16379.221676269581</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" ref="G16:G25" si="7">+G15*1.036</f>
+        <f t="shared" ref="G16:G25" si="8">+G15*1.036</f>
         <v>10770.556245270878</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" ref="H16:H26" si="8">+H15*1.022</f>
+        <f t="shared" ref="H16:H26" si="9">+H15*1.022</f>
         <v>6782.0998210537255</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <f>+C16+1</f>
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18542.154898519759</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17654.809296268271</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17:F26" si="9">+F16*1.017</f>
+        <f t="shared" ref="F17:F26" si="10">+F16*1.017</f>
         <v>16657.668444766161</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11158.296270100631</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6931.3060171169072</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <f>+C17+1</f>
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19005.70877098275</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17954.941054304829</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="10"/>
+        <v>16940.848808327184</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="8"/>
+        <v>11559.994935824254</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="9"/>
-        <v>16940.848808327184</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="7"/>
-        <v>11559.994935824254</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="8"/>
         <v>7083.7947494934797</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <f>+C18+1</f>
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19480.851490257319</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18260.175052228009</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="10"/>
+        <v>17228.843238068745</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="8"/>
+        <v>11976.154753513927</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="9"/>
-        <v>17228.843238068745</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="7"/>
-        <v>11976.154753513927</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="8"/>
         <v>7239.6382339823367</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
-        <f>+C19+1</f>
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19967.872777513749</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18570.598028115885</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="10"/>
+        <v>17521.733573115911</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="8"/>
+        <v>12407.296324640429</v>
+      </c>
+      <c r="H20" s="2">
         <f t="shared" si="9"/>
-        <v>17521.733573115911</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="7"/>
-        <v>12407.296324640429</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="8"/>
         <v>7398.9102751299479</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
-        <f>+C20+1</f>
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20467.069596951591</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18886.298194593852</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="10"/>
+        <v>17819.603043858879</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="8"/>
+        <v>12853.958992327485</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="9"/>
-        <v>17819.603043858879</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="7"/>
-        <v>12853.958992327485</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="8"/>
         <v>7561.6863011828073</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
-        <f>+C21+1</f>
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20978.746336875378</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19207.365263901946</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="10"/>
+        <v>18122.536295604477</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="8"/>
+        <v>13316.701516051275</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="9"/>
-        <v>18122.536295604477</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="7"/>
-        <v>13316.701516051275</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="8"/>
         <v>7728.0433998088292</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
-        <f>+C22+1</f>
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21503.214995297261</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19533.890473388277</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="10"/>
+        <v>18430.619412629752</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="8"/>
+        <v>13796.102770629121</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="9"/>
-        <v>18430.619412629752</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="7"/>
-        <v>13796.102770629121</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="8"/>
         <v>7898.0603546046241</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
-        <f>+C23+1</f>
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22040.795370179691</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19865.966611435877</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="10"/>
+        <v>18743.939942644458</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="8"/>
+        <v>14292.76247037177</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="9"/>
-        <v>18743.939942644458</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="7"/>
-        <v>14292.76247037177</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="8"/>
         <v>8071.8176824059256</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
-        <f>+C24+1</f>
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22591.815254434179</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20203.688043830283</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="10"/>
+        <v>19062.586921669412</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="8"/>
+        <v>14807.301919305155</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="9"/>
-        <v>19062.586921669412</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="7"/>
-        <v>14807.301919305155</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="8"/>
         <v>8249.3976714188557</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
-        <f>+C25+1</f>
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23156.61063579503</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20547.150740575395</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19386.65089933779</v>
       </c>
       <c r="G26" s="2">
@@ -3381,13 +3381,13 @@
         <v>15340.36478840014</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8430.8844201900702</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
-        <f>+C26+1</f>
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
       <c r="D27" s="2">
@@ -3413,105 +3413,105 @@
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
-        <f>+C27+1</f>
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" ref="D28:D71" si="10">+D27*0.999</f>
+        <f t="shared" ref="D28:D71" si="11">+D27*0.999</f>
         <v>23110.320571134074</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ref="E28:E71" si="11">+E27*0.999</f>
+        <f t="shared" ref="E28:E71" si="12">+E27*0.999</f>
         <v>20506.076986244985</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" ref="F28:F71" si="12">+F27*0.999</f>
+        <f t="shared" ref="F28:F71" si="13">+F27*0.999</f>
         <v>19347.896984190014</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" ref="G28:G71" si="13">+G27*1.015</f>
+        <f t="shared" ref="G28:G71" si="14">+G27*1.015</f>
         <v>15804.027314129531</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ref="H28:H71" si="14">+H27*1.006</f>
+        <f t="shared" ref="H28:H71" si="15">+H27*1.006</f>
         <v>8532.3585450714781</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
-        <f>+C28+1</f>
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23087.210250562941</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20485.570909258739</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19328.549087205825</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16041.087723841472</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8583.552696341907</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
-        <f>+C29+1</f>
+        <f t="shared" si="0"/>
         <v>2034</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23064.123040312377</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20465.08533834948</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19309.220538118618</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16281.704039699092</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8635.0540125199586</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
-        <f>+C30+1</f>
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23041.058917272065</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20444.62025301113</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19289.9113175805</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16525.929600294578</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8686.8643365950793</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -3520,963 +3520,963 @@
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
-        <f>+C31+1</f>
+        <f t="shared" si="0"/>
         <v>2036</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23018.017858354793</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20424.175632758117</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19270.621406262919</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16773.818544298996</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8738.9855226146501</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
-        <f>+C32+1</f>
+        <f t="shared" si="0"/>
         <v>2037</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22994.999840496439</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20403.75145712536</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19251.350784856655</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17025.42582246348</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8791.4194357503384</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
-        <f>+C33+1</f>
+        <f t="shared" si="0"/>
         <v>2038</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22972.004840655944</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20383.347705668235</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19232.099434071799</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17280.80720980043</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8844.1679523648399</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
-        <f>+C34+1</f>
+        <f t="shared" si="0"/>
         <v>2039</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22949.032835815287</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20362.964357962566</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19212.867334637725</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17540.019317947434</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8897.232960079029</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
-        <f>+C35+1</f>
+        <f t="shared" si="0"/>
         <v>2040</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22926.083802979472</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20342.601393604604</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19193.654467303088</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>17803.119607716642</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8950.6163578395026</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
-        <f>+C36+1</f>
+        <f t="shared" si="0"/>
         <v>2041</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22903.157719176492</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20322.258792211</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19174.460812835783</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18070.16640183239</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9004.32005598654</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
-        <f>+C37+1</f>
+        <f t="shared" si="0"/>
         <v>2042</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22880.254561457314</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20301.93653341879</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19155.286352022948</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18341.218897859875</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9058.34597632246</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
-        <f>+C38+1</f>
+        <f t="shared" si="0"/>
         <v>2043</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22857.374306895857</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20281.634596885371</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19136.131065670925</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18616.33718132777</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9112.696052180394</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
-        <f>+C39+1</f>
+        <f t="shared" si="0"/>
         <v>2044</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22834.516932588962</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20261.352962288485</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19116.994934605253</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>18895.582239047686</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9167.3722284934756</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
-        <f>+C40+1</f>
+        <f t="shared" si="0"/>
         <v>2045</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22811.682415656374</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20241.091609326199</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19097.877939670649</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19179.015972633399</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9222.3764618644364</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
-        <f>+C41+1</f>
+        <f t="shared" si="0"/>
         <v>2046</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22788.870733240718</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20220.850517716874</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19078.780061730977</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19466.701212222899</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9277.7107206356231</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
-        <f>+C42+1</f>
+        <f t="shared" si="0"/>
         <v>2047</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22766.081862507475</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20200.629667199155</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19059.701281669244</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19758.701730406239</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9333.3769849594373</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
-        <f>+C43+1</f>
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22743.315780644967</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20180.429037531954</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19040.641580387575</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20055.08225636233</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9389.3772468691932</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
-        <f>+C44+1</f>
+        <f t="shared" si="0"/>
         <v>2049</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22720.572464864323</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20160.248608494421</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19021.600938807187</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20355.908490207763</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9445.7135103504079</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
-        <f>+C45+1</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22697.85189239946</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20140.088359885925</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19002.579337868381</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20661.247117560877</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9502.3877914125096</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
-        <f t="shared" ref="C47:C72" si="15">+C46+1</f>
+        <f t="shared" ref="C47:C71" si="16">+C46+1</f>
         <v>2051</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22675.154040507059</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20119.948271526038</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18983.576758530511</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>20971.165824324289</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9559.4021181609842</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
+        <f t="shared" si="16"/>
+        <v>2052</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="11"/>
+        <v>22652.478886466553</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="12"/>
+        <v>20099.828323254511</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="13"/>
+        <v>18964.593181771979</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="14"/>
+        <v>21285.733311689153</v>
+      </c>
+      <c r="H48" s="2">
         <f t="shared" si="15"/>
-        <v>2052</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="10"/>
-        <v>22652.478886466553</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="11"/>
-        <v>20099.828323254511</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" si="12"/>
-        <v>18964.593181771979</v>
-      </c>
-      <c r="G48" s="2">
-        <f t="shared" si="13"/>
-        <v>21285.733311689153</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="14"/>
         <v>9616.7585308699508</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
+        <f t="shared" si="16"/>
+        <v>2053</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="11"/>
+        <v>22629.826407580087</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="12"/>
+        <v>20079.728494931256</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="13"/>
+        <v>18945.628588590207</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="14"/>
+        <v>21605.019311364489</v>
+      </c>
+      <c r="H49" s="2">
         <f t="shared" si="15"/>
-        <v>2053</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="10"/>
-        <v>22629.826407580087</v>
-      </c>
-      <c r="E49" s="2">
-        <f t="shared" si="11"/>
-        <v>20079.728494931256</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="12"/>
-        <v>18945.628588590207</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" si="13"/>
-        <v>21605.019311364489</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="14"/>
         <v>9674.4590820551712</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
+        <f t="shared" si="16"/>
+        <v>2054</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="11"/>
+        <v>22607.196581172506</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="12"/>
+        <v>20059.648766436323</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="13"/>
+        <v>18926.682960001617</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="14"/>
+        <v>21929.094601034954</v>
+      </c>
+      <c r="H50" s="2">
         <f t="shared" si="15"/>
-        <v>2054</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="10"/>
-        <v>22607.196581172506</v>
-      </c>
-      <c r="E50" s="2">
-        <f t="shared" si="11"/>
-        <v>20059.648766436323</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" si="12"/>
-        <v>18926.682960001617</v>
-      </c>
-      <c r="G50" s="2">
-        <f t="shared" si="13"/>
-        <v>21929.094601034954</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="14"/>
         <v>9732.5058365475015</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
+        <f t="shared" si="16"/>
+        <v>2055</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="11"/>
+        <v>22584.589384591334</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="12"/>
+        <v>20039.589117669886</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="13"/>
+        <v>18907.756277041615</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="14"/>
+        <v>22258.031020050475</v>
+      </c>
+      <c r="H51" s="2">
         <f t="shared" si="15"/>
-        <v>2055</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="10"/>
-        <v>22584.589384591334</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="11"/>
-        <v>20039.589117669886</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" si="12"/>
-        <v>18907.756277041615</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" si="13"/>
-        <v>22258.031020050475</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="14"/>
         <v>9790.900871566786</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
+        <f t="shared" si="16"/>
+        <v>2056</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="11"/>
+        <v>22562.004795206743</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="12"/>
+        <v>20019.549528552216</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="13"/>
+        <v>18888.848520764575</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="14"/>
+        <v>22591.901485351231</v>
+      </c>
+      <c r="H52" s="2">
         <f t="shared" si="15"/>
-        <v>2056</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="10"/>
-        <v>22562.004795206743</v>
-      </c>
-      <c r="E52" s="2">
-        <f t="shared" si="11"/>
-        <v>20019.549528552216</v>
-      </c>
-      <c r="F52" s="2">
-        <f t="shared" si="12"/>
-        <v>18888.848520764575</v>
-      </c>
-      <c r="G52" s="2">
-        <f t="shared" si="13"/>
-        <v>22591.901485351231</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="14"/>
         <v>9849.6462767961875</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
+        <f t="shared" si="16"/>
+        <v>2057</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="11"/>
+        <v>22539.442790411536</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="12"/>
+        <v>19999.529979023664</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="13"/>
+        <v>18869.959672243811</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="14"/>
+        <v>22930.780007631496</v>
+      </c>
+      <c r="H53" s="2">
         <f t="shared" si="15"/>
-        <v>2057</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="10"/>
-        <v>22539.442790411536</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="11"/>
-        <v>19999.529979023664</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" si="12"/>
-        <v>18869.959672243811</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="13"/>
-        <v>22930.780007631496</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="14"/>
         <v>9908.7441544569647</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
+        <f t="shared" si="16"/>
+        <v>2058</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="11"/>
+        <v>22516.903347621126</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="12"/>
+        <v>19979.53044904464</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="13"/>
+        <v>18851.089712571567</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="14"/>
+        <v>23274.741707745965</v>
+      </c>
+      <c r="H54" s="2">
         <f t="shared" si="15"/>
-        <v>2058</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="10"/>
-        <v>22516.903347621126</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" si="11"/>
-        <v>19979.53044904464</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" si="12"/>
-        <v>18851.089712571567</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" si="13"/>
-        <v>23274.741707745965</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="14"/>
         <v>9968.196619383707</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
+        <f t="shared" si="16"/>
+        <v>2059</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="11"/>
+        <v>22494.386444273507</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="12"/>
+        <v>19959.550918595596</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="13"/>
+        <v>18832.238622858997</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="14"/>
+        <v>23623.862833362153</v>
+      </c>
+      <c r="H55" s="2">
         <f t="shared" si="15"/>
-        <v>2059</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="10"/>
-        <v>22494.386444273507</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="11"/>
-        <v>19959.550918595596</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="12"/>
-        <v>18832.238622858997</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="13"/>
-        <v>23623.862833362153</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="14"/>
         <v>10028.005799100009</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
+        <f t="shared" si="16"/>
+        <v>2060</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="11"/>
+        <v>22471.892057829235</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="12"/>
+        <v>19939.591367677</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="13"/>
+        <v>18813.406384236139</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="14"/>
+        <v>23978.220775862581</v>
+      </c>
+      <c r="H56" s="2">
         <f t="shared" si="15"/>
-        <v>2060</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="10"/>
-        <v>22471.892057829235</v>
-      </c>
-      <c r="E56" s="2">
-        <f t="shared" si="11"/>
-        <v>19939.591367677</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" si="12"/>
-        <v>18813.406384236139</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="13"/>
-        <v>23978.220775862581</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="14"/>
         <v>10088.173833894609</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
+        <f t="shared" si="16"/>
+        <v>2061</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="11"/>
+        <v>22449.420165771404</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="12"/>
+        <v>19919.651776309322</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="13"/>
+        <v>18794.592977851902</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="14"/>
+        <v>24337.894087500517</v>
+      </c>
+      <c r="H57" s="2">
         <f t="shared" si="15"/>
-        <v>2061</v>
-      </c>
-      <c r="D57" s="2">
-        <f t="shared" si="10"/>
-        <v>22449.420165771404</v>
-      </c>
-      <c r="E57" s="2">
-        <f t="shared" si="11"/>
-        <v>19919.651776309322</v>
-      </c>
-      <c r="F57" s="2">
-        <f t="shared" si="12"/>
-        <v>18794.592977851902</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="13"/>
-        <v>24337.894087500517</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="14"/>
         <v>10148.702876897976</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
+        <f t="shared" si="16"/>
+        <v>2062</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="11"/>
+        <v>22426.970745605631</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="12"/>
+        <v>19899.732124533013</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="13"/>
+        <v>18775.798384874051</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="14"/>
+        <v>24702.962498813024</v>
+      </c>
+      <c r="H58" s="2">
         <f t="shared" si="15"/>
-        <v>2062</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="10"/>
-        <v>22426.970745605631</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" si="11"/>
-        <v>19899.732124533013</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="12"/>
-        <v>18775.798384874051</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="13"/>
-        <v>24702.962498813024</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="14"/>
         <v>10209.595094159364</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="1">
+        <f t="shared" si="16"/>
+        <v>2063</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="11"/>
+        <v>22404.543774860027</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="12"/>
+        <v>19879.83239240848</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="13"/>
+        <v>18757.022586489176</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="14"/>
+        <v>25073.506936295216</v>
+      </c>
+      <c r="H59" s="2">
         <f t="shared" si="15"/>
-        <v>2063</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="10"/>
-        <v>22404.543774860027</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="11"/>
-        <v>19879.83239240848</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="12"/>
-        <v>18757.022586489176</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="13"/>
-        <v>25073.506936295216</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="14"/>
         <v>10270.85266472432</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="1">
+        <f t="shared" si="16"/>
+        <v>2064</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="11"/>
+        <v>22382.139231085166</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="12"/>
+        <v>19859.95256001607</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="13"/>
+        <v>18738.265563902689</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="14"/>
+        <v>25449.609540339643</v>
+      </c>
+      <c r="H60" s="2">
         <f t="shared" si="15"/>
-        <v>2064</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="10"/>
-        <v>22382.139231085166</v>
-      </c>
-      <c r="E60" s="2">
-        <f t="shared" si="11"/>
-        <v>19859.95256001607</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" si="12"/>
-        <v>18738.265563902689</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="13"/>
-        <v>25449.609540339643</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="14"/>
         <v>10332.477780712667</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="1">
+        <f t="shared" si="16"/>
+        <v>2065</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="11"/>
+        <v>22359.75709185408</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="12"/>
+        <v>19840.092607456056</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="13"/>
+        <v>18719.527298338788</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="14"/>
+        <v>25831.353683444737</v>
+      </c>
+      <c r="H61" s="2">
         <f t="shared" si="15"/>
-        <v>2065</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="10"/>
-        <v>22359.75709185408</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="11"/>
-        <v>19840.092607456056</v>
-      </c>
-      <c r="F61" s="2">
-        <f t="shared" si="12"/>
-        <v>18719.527298338788</v>
-      </c>
-      <c r="G61" s="2">
-        <f t="shared" si="13"/>
-        <v>25831.353683444737</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="14"/>
         <v>10394.472647396942</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
+        <f t="shared" si="16"/>
+        <v>2066</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="11"/>
+        <v>22337.397334762227</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="12"/>
+        <v>19820.252514848598</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="13"/>
+        <v>18700.80777104045</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="14"/>
+        <v>26218.823988696404</v>
+      </c>
+      <c r="H62" s="2">
         <f t="shared" si="15"/>
-        <v>2066</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="10"/>
-        <v>22337.397334762227</v>
-      </c>
-      <c r="E62" s="2">
-        <f t="shared" si="11"/>
-        <v>19820.252514848598</v>
-      </c>
-      <c r="F62" s="2">
-        <f t="shared" si="12"/>
-        <v>18700.80777104045</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="13"/>
-        <v>26218.823988696404</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="14"/>
         <v>10456.839483281325</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
+        <f t="shared" si="16"/>
+        <v>2067</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="11"/>
+        <v>22315.059937427464</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="12"/>
+        <v>19800.43226233375</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="13"/>
+        <v>18682.106963269409</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="14"/>
+        <v>26612.106348526846</v>
+      </c>
+      <c r="H63" s="2">
         <f t="shared" si="15"/>
-        <v>2067</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="10"/>
-        <v>22315.059937427464</v>
-      </c>
-      <c r="E63" s="2">
-        <f t="shared" si="11"/>
-        <v>19800.43226233375</v>
-      </c>
-      <c r="F63" s="2">
-        <f t="shared" si="12"/>
-        <v>18682.106963269409</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="13"/>
-        <v>26612.106348526846</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="14"/>
         <v>10519.580520181013</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
+        <f t="shared" si="16"/>
+        <v>2068</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="11"/>
+        <v>22292.744877490037</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="12"/>
+        <v>19780.631830071416</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="13"/>
+        <v>18663.424856306141</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="14"/>
+        <v>27011.287943754745</v>
+      </c>
+      <c r="H64" s="2">
         <f t="shared" si="15"/>
-        <v>2068</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="10"/>
-        <v>22292.744877490037</v>
-      </c>
-      <c r="E64" s="2">
-        <f t="shared" si="11"/>
-        <v>19780.631830071416</v>
-      </c>
-      <c r="F64" s="2">
-        <f t="shared" si="12"/>
-        <v>18663.424856306141</v>
-      </c>
-      <c r="G64" s="2">
-        <f t="shared" si="13"/>
-        <v>27011.287943754745</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="14"/>
         <v>10582.698003302099</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
+        <f t="shared" si="16"/>
+        <v>2069</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="11"/>
+        <v>22270.452132612547</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="12"/>
+        <v>19760.851198241344</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="13"/>
+        <v>18644.761431449835</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="14"/>
+        <v>27416.457262911063</v>
+      </c>
+      <c r="H65" s="2">
         <f t="shared" si="15"/>
-        <v>2069</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="10"/>
-        <v>22270.452132612547</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" si="11"/>
-        <v>19760.851198241344</v>
-      </c>
-      <c r="F65" s="2">
-        <f t="shared" si="12"/>
-        <v>18644.761431449835</v>
-      </c>
-      <c r="G65" s="2">
-        <f t="shared" si="13"/>
-        <v>27416.457262911063</v>
-      </c>
-      <c r="H65" s="2">
-        <f t="shared" si="14"/>
         <v>10646.194191321913</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="1">
+        <f t="shared" si="16"/>
+        <v>2070</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="11"/>
+        <v>22248.181680479935</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="12"/>
+        <v>19741.090347043104</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="13"/>
+        <v>18626.116670018386</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="14"/>
+        <v>27827.704121854727</v>
+      </c>
+      <c r="H66" s="2">
         <f t="shared" si="15"/>
-        <v>2070</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="10"/>
-        <v>22248.181680479935</v>
-      </c>
-      <c r="E66" s="2">
-        <f t="shared" si="11"/>
-        <v>19741.090347043104</v>
-      </c>
-      <c r="F66" s="2">
-        <f t="shared" si="12"/>
-        <v>18626.116670018386</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" si="13"/>
-        <v>27827.704121854727</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" si="14"/>
         <v>10710.071356469844</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
+        <f t="shared" si="16"/>
+        <v>2071</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="11"/>
+        <v>22225.933498799455</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="12"/>
+        <v>19721.349256696059</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="13"/>
+        <v>18607.490553348369</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="14"/>
+        <v>28245.119683682544</v>
+      </c>
+      <c r="H67" s="2">
         <f t="shared" si="15"/>
-        <v>2071</v>
-      </c>
-      <c r="D67" s="2">
-        <f t="shared" si="10"/>
-        <v>22225.933498799455</v>
-      </c>
-      <c r="E67" s="2">
-        <f t="shared" si="11"/>
-        <v>19721.349256696059</v>
-      </c>
-      <c r="F67" s="2">
-        <f t="shared" si="12"/>
-        <v>18607.490553348369</v>
-      </c>
-      <c r="G67" s="2">
-        <f t="shared" si="13"/>
-        <v>28245.119683682544</v>
-      </c>
-      <c r="H67" s="2">
-        <f t="shared" si="14"/>
         <v>10774.331784608663</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
+        <f t="shared" si="16"/>
+        <v>2072</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="11"/>
+        <v>22203.707565300654</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="12"/>
+        <v>19701.627907439364</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="13"/>
+        <v>18588.883062795019</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="14"/>
+        <v>28668.79647893778</v>
+      </c>
+      <c r="H68" s="2">
         <f t="shared" si="15"/>
-        <v>2072</v>
-      </c>
-      <c r="D68" s="2">
-        <f t="shared" si="10"/>
-        <v>22203.707565300654</v>
-      </c>
-      <c r="E68" s="2">
-        <f t="shared" si="11"/>
-        <v>19701.627907439364</v>
-      </c>
-      <c r="F68" s="2">
-        <f t="shared" si="12"/>
-        <v>18588.883062795019</v>
-      </c>
-      <c r="G68" s="2">
-        <f t="shared" si="13"/>
-        <v>28668.79647893778</v>
-      </c>
-      <c r="H68" s="2">
-        <f t="shared" si="14"/>
         <v>10838.977775316314</v>
       </c>
     </row>
@@ -4486,75 +4486,75 @@
         <v>2073</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>22181.503857735352</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19681.926279531926</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18570.294179732224</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>29098.828426121843</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10904.011641968213</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
+        <f t="shared" si="16"/>
+        <v>2074</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="11"/>
+        <v>22159.322353877615</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="12"/>
+        <v>19662.244353252394</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="13"/>
+        <v>18551.723885552492</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="14"/>
+        <v>29535.310852513667</v>
+      </c>
+      <c r="H70" s="2">
         <f t="shared" si="15"/>
-        <v>2074</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="10"/>
-        <v>22159.322353877615</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="11"/>
-        <v>19662.244353252394</v>
-      </c>
-      <c r="F70" s="2">
-        <f t="shared" si="12"/>
-        <v>18551.723885552492</v>
-      </c>
-      <c r="G70" s="2">
-        <f t="shared" si="13"/>
-        <v>29535.310852513667</v>
-      </c>
-      <c r="H70" s="2">
-        <f t="shared" si="14"/>
         <v>10969.435711820022</v>
       </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
+        <f t="shared" si="16"/>
+        <v>2075</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="11"/>
+        <v>22137.163031523738</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="12"/>
+        <v>19642.58210889914</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="13"/>
+        <v>18533.172161666938</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="14"/>
+        <v>29978.34051530137</v>
+      </c>
+      <c r="H71" s="2">
         <f t="shared" si="15"/>
-        <v>2075</v>
-      </c>
-      <c r="D71" s="2">
-        <f t="shared" si="10"/>
-        <v>22137.163031523738</v>
-      </c>
-      <c r="E71" s="2">
-        <f t="shared" si="11"/>
-        <v>19642.58210889914</v>
-      </c>
-      <c r="F71" s="2">
-        <f t="shared" si="12"/>
-        <v>18533.172161666938</v>
-      </c>
-      <c r="G71" s="2">
-        <f t="shared" si="13"/>
-        <v>29978.34051530137</v>
-      </c>
-      <c r="H71" s="2">
-        <f t="shared" si="14"/>
         <v>11035.252326090942</v>
       </c>
     </row>
